--- a/biology/Botanique/Diospyros_ropourea/Diospyros_ropourea.xlsx
+++ b/biology/Botanique/Diospyros_ropourea/Diospyros_ropourea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ropourier, Jawle wassilikodo, Bois gaulete, Aroupourou
 Diospyros ropourea est une espèce de plantes à fleurs du genre Diospyros et de la famille des Ebenaceae, endémique de Guyane française et du Surinam.
-On le connaît en Guyane sous le nom de jawle wassilikodo (signifiant « testicules d'opossum » en Lokono)[2].
+On le connaît en Guyane sous le nom de jawle wassilikodo (signifiant « testicules d'opossum » en Lokono).
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diospyro ropourea porte deux types de poils sur ses jeunes pousse : des poils appliqués longs d'environ 1 mm, et des poils détachés mesurant généralement moins de 0,3 mm. 
 Sur les faces supérieures des feuilles, les nervures secondaires et tertiaires sont légèrement creusées, mais ne donnant pas aux feuilles un aspect bullé comme observé chez Diospyros matheriana.
 Au séchage, la faces inférieures des feuilles prend une couleur gris-brun foncé, avec une légère nuance de violet.
-L'acumen foliaire est nettement délimité par rapport au limbe, dont l'extrémité est nettement arrondie[3].
+L'acumen foliaire est nettement délimité par rapport au limbe, dont l'extrémité est nettement arrondie.
 </t>
         </is>
       </c>
@@ -547,10 +561,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon est longtemps resté énigmatique car les feuilles ont été décrites dans le protologue comme étant imparipennées (des pousses aux feuilles distiques et non divisées ont en effet été prises par erreur pour de grandes pinnules), et il n'a pu être attribué au genre Diospyros qu'au milieu du XXe siècle[3].
-La phylogénie de Diospyros ropourea a été étudiée[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon est longtemps resté énigmatique car les feuilles ont été décrites dans le protologue comme étant imparipennées (des pousses aux feuilles distiques et non divisées ont en effet été prises par erreur pour de grandes pinnules), et il n'a pu être attribué au genre Diospyros qu'au milieu du XXe siècle.
+La phylogénie de Diospyros ropourea a été étudiée.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[5] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « ROPOUREA (Guianenfis.). (Tabula 78.)
 Frutex duodecim aut quindecim-pedalis ; caule fimplici, nodoſo, cylindraceo. Folia ad nodos verticillata, plurima, declinata, imparipinnata, foliolis ſex, alternis, utrinquè coſtæ adnexis, ovato-oblongis, amplis, acuminatis, acumine obtuſo, glabris, integerrimis, ſubſeſſilibus. Aculeus brevis, pauló ſuprà axillam ſinguli folioli. Flores ceſpitoſi, numeroſi, ſeſſiles, ſuprà et intrà baſim foliorum.
 Florebat fructumque ferebat Januario.
